--- a/data/trans_camb/P25_10-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_10-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-4,71</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-1,07</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,39</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,24</t>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,36</t>
+          <t>-5,58; 1,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,26</t>
+          <t>-3,55; 6,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,07; -0,78</t>
+          <t>-5,39; 1,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 4,58</t>
+          <t>-1,76; 4,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 5,25</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 1,04</t>
+          <t>-6,04; 3,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,88</t>
+          <t>-5,68; 5,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 3,93</t>
+          <t>-4,13; 8,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; -0,45</t>
+          <t>-11,64; 0,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 3,75</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,31; 1,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,81; 4,12</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,24; 3,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 0,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,94; 3,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-52,89%</t>
+          <t>-48,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-64,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,89%</t>
+          <t>-16,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-71,92%</t>
+          <t>-61,02%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-25,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-47,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>80,24%</t>
         </is>
       </c>
     </row>
@@ -806,32 +944,62 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 165,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,68; 162,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 71,58</t>
+          <t>-68,12; 111,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,78; 74,62</t>
+          <t>-64,86; 195,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,85; 153,54</t>
+          <t>-55,96; 258,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-94,88; 4,55</t>
+          <t>-90,45; 51,31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-68,79; 66,31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-51,91; 157,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-61,57; 167,53</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-84,29; 56,39</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,23</t>
+          <t>-11,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-11,52</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,62</t>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,81</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,93</t>
+          <t>-1,91; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,82</t>
+          <t>-0,87; 4,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,5</t>
+          <t>0,17; 7,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -4,08</t>
+          <t>-4,01; 7,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -4,21</t>
+          <t>-3,87; 7,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,55; -6,82</t>
+          <t>-19,02; -3,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,08; -1,32</t>
+          <t>-18,82; -3,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -0,87</t>
+          <t>-13,6; 3,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,41; -1,53</t>
+          <t>-10,32; 6,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,68; 15,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; -1,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; -0,73</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 4,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 5,09</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 8,8</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>142,2%</t>
+          <t>166,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>172,88%</t>
+          <t>294,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,8%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-51,42%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-60,23%</t>
+          <t>-49,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-46,17%</t>
+          <t>-49,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-41,59%</t>
+          <t>-20,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-47,11%</t>
+          <t>-6,61%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>83,14%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-45,63%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-39,7%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-5,81%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>71,87%</t>
         </is>
       </c>
     </row>
@@ -1012,42 +1270,72 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,15; —</t>
+          <t>-58,28; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,12; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-70,09; -22,13</t>
+          <t>-76,25; 329,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,83; -22,99</t>
+          <t>-83,16; 569,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,08; -34,83</t>
+          <t>-67,8; -13,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,22; -11,72</t>
+          <t>-68,47; -19,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,64; -5,1</t>
+          <t>-50,58; 16,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-71,23; -13,83</t>
+          <t>-45,81; 45,79</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 235,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-67,33; -13,48</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-62,95; -5,39</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-40,94; 46,9</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-44,15; 59,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 187,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-3,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-3,98</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>4,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,65</t>
+          <t>-4,75; 1,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 1,82</t>
+          <t>-4,87; 1,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 6,36</t>
+          <t>-1,93; 5,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 2,36</t>
+          <t>-0,46; 9,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 2,06</t>
+          <t>-0,62; 9,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 1,51</t>
+          <t>-9,75; 2,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 1,96</t>
+          <t>-10,83; 1,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 1,47</t>
+          <t>-4,94; 8,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,88</t>
+          <t>-10,84; 3,79</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 10,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 0,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 1,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 6,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 4,47</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 9,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,14%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-22,7%</t>
+          <t>-29,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,87%</t>
+          <t>75,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,28%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,54%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-17,43%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-14,69%</t>
+          <t>-15,72%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22,79%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-18,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-18,87%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14,3%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,12%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 64,35</t>
+          <t>-74,96; 78,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 85,83</t>
+          <t>-73,01; 70,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 267,53</t>
+          <t>-36,29; 258,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 12,34</t>
+          <t>-11,1; 276,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 10,76</t>
+          <t>-11,9; 237,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 8,73</t>
+          <t>-36,74; 12,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,22; 18,19</t>
+          <t>-39,96; 9,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 12,71</t>
+          <t>-18,41; 44,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 16,78</t>
+          <t>-37,98; 18,09</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-14,47; 75,18</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-40,59; 9,05</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,72; 10,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-13,16; 53,27</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 33,16</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 97,51</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-4,8</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,7</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>5,74</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 6,07</t>
+          <t>-1,89; 5,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 8,77</t>
+          <t>0,58; 8,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 10,49</t>
+          <t>2,53; 11,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 1,98</t>
+          <t>-4,16; 8,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,45</t>
+          <t>-2,88; 10,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 1,68</t>
+          <t>-12,15; 1,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 3,0</t>
+          <t>-10,35; 3,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 4,43</t>
+          <t>-1,05; 13,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 3,17</t>
+          <t>-12,25; 3,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 16,19</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 2,65</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 4,06</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,41; 10,92</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-7,22; 3,58</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 10,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>122,86%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-14,89%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,11%</t>
+          <t>37,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,93%</t>
+          <t>-16,59%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-12,95%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>-13,22%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31,81%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-9,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-7,87%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 169,51</t>
+          <t>-26,0; 161,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,39; 231,21</t>
+          <t>3,37; 264,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,02; 302,22</t>
+          <t>29,67; 326,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 7,31</t>
+          <t>-30,59; 82,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 13,18</t>
+          <t>-24,09; 149,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 6,89</t>
+          <t>-36,61; 6,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 19,44</t>
+          <t>-31,31; 12,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,43; 28,38</t>
+          <t>-2,95; 49,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 19,9</t>
+          <t>-30,47; 12,25</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 81,57</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,49; 16,63</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,76; 25,47</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 69,31</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-27,07; 15,97</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 75,97</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,7</t>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,47</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>7,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,73</t>
+          <t>-4,84; 5,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 7,88</t>
+          <t>-3,6; 7,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 11,11</t>
+          <t>-0,56; 11,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 8,5</t>
+          <t>0,02; 14,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 8,53</t>
+          <t>0,92; 15,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 11,45</t>
+          <t>-8,65; 7,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 5,59</t>
+          <t>-8,23; 8,46</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,53</t>
+          <t>0,68; 19,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,41</t>
+          <t>-9,31; 8,72</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 15,89</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 4,85</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 6,43</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 13,08</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 9,85</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0,83; 13,21</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>13,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>57,49%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>59,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>-1,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>42,23%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>34,57%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 99,65</t>
+          <t>-39,65; 104,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 138,27</t>
+          <t>-29,54; 114,6</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 184,73</t>
+          <t>-5,63; 188,57</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 37,56</t>
+          <t>-1,22; 142,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 38,32</t>
+          <t>4,06; 156,49</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 50,25</t>
+          <t>-27,36; 36,02</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 37,16</t>
+          <t>-26,25; 36,71</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 42,84</t>
+          <t>2,55; 85,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 62,76</t>
+          <t>-22,58; 27,23</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-6,63; 63,21</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 31,34</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 41,32</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 85,73</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-11,94; 44,0</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 70,66</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-4,06</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-3,69</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-5,93</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>6,04</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-5,2</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 10,09</t>
+          <t>-7,68; 10,05</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 3,12</t>
+          <t>-12,91; 2,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 0,47</t>
+          <t>-9,27; 7,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 5,05</t>
+          <t>-7,58; 9,4</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-15,29; 4,59</t>
+          <t>-1,36; 14,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 8,3</t>
+          <t>-13,23; 4,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 4,57</t>
+          <t>-13,33; 5,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 1,9</t>
+          <t>-3,5; 18,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 3,2</t>
+          <t>-18,49; 6,73</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 16,93</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-9,26; 3,62</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-12,55; 1,03</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 10,63</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 5,56</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 14,09</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-33,01%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-42,13%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-14,68%</t>
+          <t>72,28%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-10,02%</t>
+          <t>-12,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-12,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-17,89%</t>
+          <t>-13,15%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>18,23%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-18,19%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-7,92%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 81,87</t>
+          <t>-39,5; 79,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-67,41; 30,66</t>
+          <t>-65,47; 30,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,4; 8,12</t>
+          <t>-48,08; 57,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 16,99</t>
+          <t>-40,31; 84,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,07; 14,0</t>
+          <t>-14,21; 240,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 23,91</t>
+          <t>-30,85; 14,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 18,67</t>
+          <t>-31,81; 16,87</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 7,25</t>
+          <t>-8,55; 57,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,56; 13,6</t>
+          <t>-35,72; 17,29</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-18,37; 62,97</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-29,53; 14,59</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-37,63; 4,51</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 40,42</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-27,53; 19,48</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 74,65</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>3,29</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 2,33</t>
+          <t>-1,65; 2,25</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,49</t>
+          <t>-1,54; 2,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,09</t>
+          <t>0,45; 4,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-7,48; -1,04</t>
+          <t>-0,12; 5,09</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,38; -1,04</t>
+          <t>1,36; 6,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,58; -1,47</t>
+          <t>-7,64; -1,25</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 0,08</t>
+          <t>-7,58; -1,24</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,09</t>
+          <t>0,53; 7,74</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,26</t>
+          <t>-7,06; 0,53</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 9,61</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-4,34; -0,39</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; -0,1</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 5,68</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 2,03</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 7,46</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-17,07%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-17,31%</t>
+          <t>59,64%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,05%</t>
+          <t>-18,14%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-16,82%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-12,53%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-13,72%</t>
+          <t>-11,59%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>27,63%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-12,61%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>20,26%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,98; 43,97</t>
+          <t>-23,75; 42,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 47,73</t>
+          <t>-21,65; 44,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 57,85</t>
+          <t>5,37; 90,08</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,59; -4,28</t>
+          <t>-1,18; 67,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,39; -4,47</t>
+          <t>15,75; 116,04</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,52; -6,35</t>
+          <t>-28,13; -5,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,36; 0,56</t>
+          <t>-27,95; -5,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,73; -0,63</t>
+          <t>2,04; 32,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -1,55</t>
+          <t>-22,52; 1,96</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>8,65; 51,95</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-25,29; -2,53</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-23,01; -0,1</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 36,68</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-15,1; 11,32</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>18,46; 59,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
